--- a/Analyzed/try8/data_2008.xlsx
+++ b/Analyzed/try8/data_2008.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>62.44</v>
       </c>
       <c r="J2">
-        <v>460</v>
+        <v>537.63926</v>
       </c>
       <c r="K2">
         <v>1543.613</v>
       </c>
       <c r="L2">
-        <v>521.85</v>
+        <v>658.5992</v>
       </c>
       <c r="M2">
         <v>69.35899077228321</v>
@@ -558,13 +583,13 @@
         <v>-111.85</v>
       </c>
       <c r="P2">
-        <v>456.2584784427712</v>
+        <v>595.9537274623899</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <v>1</v>
@@ -573,22 +598,22 @@
         <v>1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2">
         <v>2</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -600,6 +625,21 @@
         <v>0</v>
       </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
         <v>0</v>
       </c>
     </row>
@@ -634,13 +674,13 @@
         <v>47.51000000000001</v>
       </c>
       <c r="J3">
-        <v>450.8</v>
+        <v>553.72508</v>
       </c>
       <c r="K3">
         <v>1207.102</v>
       </c>
       <c r="L3">
-        <v>540.75</v>
+        <v>730.40835</v>
       </c>
       <c r="M3">
         <v>52.48942119317996</v>
@@ -652,49 +692,64 @@
         <v>-133.41</v>
       </c>
       <c r="P3">
-        <v>357.6408068121374</v>
+        <v>465.5555979503731</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
         <v>6</v>
       </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3">
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+      <c r="AA3">
         <v>4</v>
       </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>2</v>
-      </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>52.27</v>
       </c>
       <c r="J4">
-        <v>444.8</v>
+        <v>576.53174</v>
       </c>
       <c r="K4">
         <v>1351.91</v>
       </c>
       <c r="L4">
-        <v>487.62</v>
+        <v>725.5542</v>
       </c>
       <c r="M4">
         <v>65.27134836854964</v>
@@ -746,19 +801,19 @@
         <v>-104.03</v>
       </c>
       <c r="P4">
-        <v>373.5587589365358</v>
+        <v>488.487433098484</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U4">
         <v>2</v>
@@ -770,24 +825,39 @@
         <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
         <v>1</v>
       </c>
     </row>
@@ -822,13 +892,13 @@
         <v>33.73</v>
       </c>
       <c r="J5">
-        <v>412.8</v>
+        <v>392.53922</v>
       </c>
       <c r="K5">
         <v>1406.046</v>
       </c>
       <c r="L5">
-        <v>385.14</v>
+        <v>381.7317</v>
       </c>
       <c r="M5">
         <v>66.68920217536139</v>
@@ -840,49 +910,64 @@
         <v>-154.77</v>
       </c>
       <c r="P5">
-        <v>348.8088103976554</v>
+        <v>453.9411979272751</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T5">
         <v>4</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5">
         <v>2</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD5">
         <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>34.21</v>
       </c>
       <c r="J6">
-        <v>439.8</v>
+        <v>557.3077500000001</v>
       </c>
       <c r="K6">
         <v>971.672</v>
       </c>
       <c r="L6">
-        <v>428.4</v>
+        <v>550.0509</v>
       </c>
       <c r="M6">
         <v>59.7425274477666</v>
@@ -934,38 +1019,38 @@
         <v>-93.12</v>
       </c>
       <c r="P6">
-        <v>397.247330016666</v>
+        <v>518.0545109860016</v>
       </c>
       <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
       <c r="U6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
         <v>4</v>
       </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
       <c r="AA6">
         <v>3</v>
       </c>
@@ -976,7 +1061,22 @@
         <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>4</v>
+      </c>
+      <c r="AI6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>32.15</v>
       </c>
       <c r="J7">
-        <v>394.6</v>
+        <v>350.94545</v>
       </c>
       <c r="K7">
         <v>1128.122</v>
       </c>
       <c r="L7">
-        <v>439.32</v>
+        <v>417.7222</v>
       </c>
       <c r="M7">
         <v>79.50576500352203</v>
@@ -1028,49 +1128,64 @@
         <v>-119.4</v>
       </c>
       <c r="P7">
-        <v>282.4623696472535</v>
+        <v>366.3554027780639</v>
       </c>
       <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>8</v>
+      </c>
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
       <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
         <v>5</v>
       </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>2</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
       <c r="Y7">
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>2</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD7">
         <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>2</v>
+      </c>
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>32.31</v>
       </c>
       <c r="J8">
-        <v>393.2</v>
+        <v>364.18774</v>
       </c>
       <c r="K8">
         <v>1092.565</v>
       </c>
       <c r="L8">
-        <v>421.68</v>
+        <v>425.17545</v>
       </c>
       <c r="M8">
         <v>67.93480806793882</v>
@@ -1122,22 +1237,22 @@
         <v>-180.06</v>
       </c>
       <c r="P8">
-        <v>378.7632961740342</v>
+        <v>495.6967849990483</v>
       </c>
       <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
       <c r="U8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1149,22 +1264,37 @@
         <v>4</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>2</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>22.06</v>
       </c>
       <c r="J9">
-        <v>371</v>
+        <v>329.42657</v>
       </c>
       <c r="K9">
         <v>2367.181</v>
       </c>
       <c r="L9">
-        <v>406.98</v>
+        <v>434.7588</v>
       </c>
       <c r="M9">
         <v>65.21032322370532</v>
@@ -1216,49 +1346,64 @@
         <v>-167.37</v>
       </c>
       <c r="P9">
-        <v>368.3107356918011</v>
+        <v>483.2822114937446</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
         <v>7</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
       <c r="W9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
